--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B2748-CDFD-48D3-9E01-CF7984D4545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7902C5-576F-4437-B1E0-21FA14CF0BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.48192e8dcUKS6N&amp;id=620356448219&amp;_u=q1sddf3sc65e</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.48192e8dcUKS6N&amp;id=44094167391&amp;_u=q1sddf3sef9d</t>
-  </si>
-  <si>
     <t xml:space="preserve">L6234PD </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?spm=a220o.1000855.1998025129.5.731069a41GUvBF&amp;id=15817242523&amp;scm=1007.12144.95220.23864_0_0&amp;pvid=066d6b18-7e89-4bcc-b7cc-714d39d26f87&amp;utparam=%7B%22x_hestia_source%22:%2223864%22,%22x_object_type%22:%22item%22,%22x_hestia_subsource%22:%22default%22,%22x_mt%22:0,%22x_src%22:%2223864%22,%22x_pos%22:5,%22wh_pid%22:-1,%22x_pvid%22:%22066d6b18-7e89-4bcc-b7cc-714d39d26f87%22,%22scm%22:%221007.12144.95220.23864_0_0%22,%22x_object_id%22:15817242523%7D&amp;skuId=4912757514723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?spm=a220o.1000855.1998025129.5.731069a41GUvBF&amp;id=15817242523&amp;scm=1007.12144.95220.23864_0_0&amp;pvid=066d6b18-7e89-4bcc-b7cc-714d39d26f87&amp;utparam=%7B%22x_hestia_source%22:%2223864%22,%22x_object_type%22:%22item%22,%22x_hestia_subsource%22:%22default%22,%22x_mt%22:0,%22x_src%22:%2223864%22,%22x_pos%22:5,%22wh_pid%22:-1,%22x_pvid%22:%22066d6b18-7e89-4bcc-b7cc-714d39d26f87%22,%22scm%22:%221007.12144.95220.23864_0_0%22,%22x_object_id%22:15817242523%7D&amp;skuId=4912759730383</t>
   </si>
   <si>
@@ -696,6 +689,14 @@
   </si>
   <si>
     <t>可以买有接线头的电池 (比这个长宽小都可以)厚x长x宽:7.9mmx25mmx40mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=602259804542&amp;spm=a1z09.2.0.0.33272e8d1z6i9Z&amp;_u=t1sddf3s2c62&amp;skuId=4424957757201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.48192e8dcUKS6N&amp;id=44094167391&amp;_u=q1sddf3sef9d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1264,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1341,8 +1342,8 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>211</v>
+      <c r="D5" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,7 +1362,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1369,24 +1370,24 @@
       <c r="C7" s="2">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1395,12 +1396,12 @@
         <v>3.35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2">
         <v>15</v>
@@ -1409,12 +1410,12 @@
         <v>1.35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1423,7 +1424,7 @@
         <v>3.08</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1432,9 +1433,11 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{4029FCE3-E6D0-4421-A530-9422D514F607}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CD7F178F-E1BE-4CCE-86B4-8E548D4F0039}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{34FDAB64-8B74-441A-9A7C-4B54B2C3DDA4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{421ACC37-7070-4A8C-8D27-E730C8200E24}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{602E93D9-AC8D-48AE-BC7A-D48B4E2ACB8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1450,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1465,12 +1468,12 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -1479,17 +1482,17 @@
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
       <c r="K2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -1498,59 +1501,59 @@
       <c r="I3" s="19"/>
       <c r="J3" s="21"/>
       <c r="K3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="9">
         <v>4000</v>
@@ -1568,24 +1571,24 @@
         <v>1.54</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="9">
         <v>2000</v>
@@ -1603,24 +1606,24 @@
         <v>6.96</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="9">
         <v>1000</v>
@@ -1638,24 +1641,24 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9">
         <v>4000</v>
@@ -1673,24 +1676,24 @@
         <v>1.54</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9">
         <v>4000</v>
@@ -1708,24 +1711,24 @@
         <v>1.58</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9">
         <v>4000</v>
@@ -1743,24 +1746,24 @@
         <v>1.69</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="F11" s="9">
         <v>2000</v>
@@ -1778,24 +1781,24 @@
         <v>3.35</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="9">
         <v>10000</v>
@@ -1813,24 +1816,24 @@
         <v>2.98</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="9">
         <v>2000</v>
@@ -1848,24 +1851,24 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="9">
         <v>1000</v>
@@ -1883,24 +1886,24 @@
         <v>4.26</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F15" s="9">
         <v>4000</v>
@@ -1918,24 +1921,24 @@
         <v>0.62</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="F16" s="9">
         <v>4000</v>
@@ -1953,24 +1956,24 @@
         <v>1.08</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F17" s="9">
         <v>5000</v>
@@ -1988,24 +1991,24 @@
         <v>3.54</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="F18" s="9">
         <v>5000</v>
@@ -2023,24 +2026,24 @@
         <v>4.18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F19" s="9">
         <v>3000</v>
@@ -2058,24 +2061,24 @@
         <v>4.38</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F20" s="9">
         <v>3000</v>
@@ -2093,24 +2096,24 @@
         <v>6.82</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="9">
         <v>1500</v>
@@ -2128,24 +2131,24 @@
         <v>9.36</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="F22" s="9">
         <v>3000</v>
@@ -2163,24 +2166,24 @@
         <v>3.78</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="F23" s="9">
         <v>3000</v>
@@ -2198,24 +2201,24 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="F24" s="9">
         <v>500</v>
@@ -2233,24 +2236,24 @@
         <v>5.96</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="F25" s="9">
         <v>3000</v>
@@ -2268,24 +2271,24 @@
         <v>4.32</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F26" s="9">
         <v>5000</v>
@@ -2303,24 +2306,24 @@
         <v>0.63</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="F27" s="9">
         <v>5000</v>
@@ -2338,24 +2341,24 @@
         <v>0.74</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="9">
         <v>5000</v>
@@ -2373,24 +2376,24 @@
         <v>0.74</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="F29" s="9">
         <v>4000</v>
@@ -2408,24 +2411,24 @@
         <v>1.51</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F30" s="9">
         <v>5000</v>
@@ -2443,24 +2446,24 @@
         <v>0.88</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="9">
         <v>5000</v>
@@ -2478,24 +2481,24 @@
         <v>0.72</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="9">
         <v>5000</v>
@@ -2513,24 +2516,24 @@
         <v>0.73</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="9">
         <v>5000</v>
@@ -2548,24 +2551,24 @@
         <v>1.3</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F34" s="9">
         <v>5000</v>
@@ -2583,24 +2586,24 @@
         <v>3.1</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="9">
         <v>4000</v>
@@ -2618,24 +2621,24 @@
         <v>1.24</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="9">
         <v>5000</v>
@@ -2653,24 +2656,24 @@
         <v>1.3</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="F37" s="9">
         <v>5000</v>
@@ -2688,24 +2691,24 @@
         <v>1.35</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="F38" s="9">
         <v>5000</v>
@@ -2723,24 +2726,24 @@
         <v>5.87</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="C39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="9">
         <v>1000</v>
@@ -2758,24 +2761,24 @@
         <v>4.32</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F40" s="9">
         <v>2500</v>
@@ -2793,24 +2796,24 @@
         <v>68.900000000000006</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="F41" s="9">
         <v>50</v>
@@ -2828,24 +2831,24 @@
         <v>32.6</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="F42" s="9">
         <v>550</v>
@@ -2863,24 +2866,24 @@
         <v>177.7</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F43" s="9">
         <v>1000</v>
@@ -2898,7 +2901,7 @@
         <v>4.84</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7902C5-576F-4437-B1E0-21FA14CF0BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CA640-2A32-4305-80B7-56D85A845C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="217">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,15 +688,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以买有接线头的电池 (比这个长宽小都可以)厚x长x宽:7.9mmx25mmx40mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?id=602259804542&amp;spm=a1z09.2.0.0.33272e8d1z6i9Z&amp;_u=t1sddf3s2c62&amp;skuId=4424957757201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.48192e8dcUKS6N&amp;id=44094167391&amp;_u=q1sddf3sef9d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=604086703320&amp;price=5.8-19.8&amp;sourceType=item&amp;sourceType=item&amp;suid=621cd5ef-8796-4f1a-a9ed-5190c6c573dd&amp;ut_sk=1.null.Copy.ShareGlobalNavigation_1&amp;un=acca778c3bcaa42a0d92f5aa52e6dceb&amp;share_crt_v=1&amp;spm=a2159r.13376460.0.0&amp;sp_tk=5ZCO5L2g5bCx6LW35LuW5bCP5LmI6YeM5Y675bCx6K%200&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fizk4UR&amp;bxsign=scdEqTaZNdEk_adN9mucLoQFQE42obUGpCqEjbIfWg2QAIU6XsW62zZv7f3Ki6-idQBkJiarN_MuQ7iNoToPdjZHpHR9Ay1Nv_NTfku2T2JcnB8TKt_AoIymN3FJvM__KWZ&amp;sm=587e9c&amp;app=chrome&amp;skuId=4740861566806</t>
+  </si>
+  <si>
+    <t>可以买有2.54母头接口的电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1279,7 @@
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1343,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1371,21 +1374,27 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
+      <c r="C8" s="2">
+        <v>10.8</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>208</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>205</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4C7DD-E104-4551-BC71-C8E49DDF4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFE55A-E793-43EE-B788-927969CFEDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">锂电池3.7v 792540-660mAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?id=602259804542&amp;spm=a1z09.2.0.0.33272e8d1z6i9Z&amp;_u=t1sddf3s2c62&amp;skuId=4424957757201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,9 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?id=604086703320&amp;price=5.8-19.8&amp;sourceType=item&amp;sourceType=item&amp;suid=621cd5ef-8796-4f1a-a9ed-5190c6c573dd&amp;ut_sk=1.null.Copy.ShareGlobalNavigation_1&amp;un=acca778c3bcaa42a0d92f5aa52e6dceb&amp;share_crt_v=1&amp;spm=a2159r.13376460.0.0&amp;sp_tk=5ZCO5L2g5bCx6LW35LuW5bCP5LmI6YeM5Y675bCx6K%200&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fizk4UR&amp;bxsign=scdEqTaZNdEk_adN9mucLoQFQE42obUGpCqEjbIfWg2QAIU6XsW62zZv7f3Ki6-idQBkJiarN_MuQ7iNoToPdjZHpHR9Ay1Nv_NTfku2T2JcnB8TKt_AoIymN3FJvM__KWZ&amp;sm=587e9c&amp;app=chrome&amp;skuId=4740861566806</t>
-  </si>
-  <si>
     <t>可以买有2.54母头接口的电池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,6 +617,14 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.68016076ieZOJW&amp;id=568656173061&amp;ns=1&amp;abbucket=8#detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=604086703320&amp;price=5.8-19.8&amp;sourceType=item&amp;sourceType=item&amp;suid=621cd5ef-8796-4f1a-a9ed-5190c6c573dd&amp;ut_sk=1.null.Copy.ShareGlobalNavigation_1&amp;un=acca778c3bcaa42a0d92f5aa52e6dceb&amp;share_crt_v=1&amp;spm=a2159r.13376460.0.0&amp;sp_tk=5ZCO5L2g5bCx6LW35LuW5bCP5LmI6YeM5Y675bCx6K%200&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fizk4UR&amp;bxsign=scdEqTaZNdEk_adN9mucLoQFQE42obUGpCqEjbIfWg2QAIU6XsW62zZv7f3Ki6-idQBkJiarN_MuQ7iNoToPdjZHpHR9Ay1Nv_NTfku2T2JcnB8TKt_AoIymN3FJvM__KWZ&amp;sm=587e9c&amp;app=chrome&amp;skuId=4740861566806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂电池3.7v 503048 800毫安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -993,7 +994,7 @@
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1060,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1088,12 +1089,12 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1102,13 +1103,13 @@
         <v>10.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -1150,9 +1151,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1161,7 +1162,7 @@
         <v>13.5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1194,34 +1195,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,16 +1233,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
@@ -1258,16 +1259,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
@@ -1284,22 +1285,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -1316,22 +1317,22 @@
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
@@ -1348,22 +1349,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>23</v>
@@ -1380,22 +1381,22 @@
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>25</v>
@@ -1412,10 +1413,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1429,10 +1430,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1446,10 +1447,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1463,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>29</v>
@@ -1495,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1512,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1529,10 +1530,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1544,7 +1545,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>33</v>
@@ -1561,10 +1562,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1578,10 +1579,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1590,10 +1591,10 @@
         <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>36</v>
@@ -1607,22 +1608,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J17" s="4">
         <v>0.1043</v>
@@ -1636,19 +1637,19 @@
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>38</v>
@@ -1665,22 +1666,22 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>40</v>
@@ -1697,22 +1698,22 @@
         <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>42</v>
@@ -1729,22 +1730,22 @@
         <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>45</v>
@@ -1761,10 +1762,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -1773,10 +1774,10 @@
         <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>47</v>
@@ -1793,22 +1794,22 @@
         <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>50</v>
@@ -1825,16 +1826,16 @@
         <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>52</v>
@@ -1851,22 +1852,22 @@
         <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>54</v>
@@ -1883,22 +1884,22 @@
         <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>56</v>
@@ -1915,10 +1916,10 @@
         <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -1932,22 +1933,22 @@
         <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>59</v>
@@ -1964,22 +1965,22 @@
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>61</v>
@@ -1996,22 +1997,22 @@
         <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>63</v>
@@ -2028,10 +2029,10 @@
         <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -2045,10 +2046,10 @@
         <v>65</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -2062,10 +2063,10 @@
         <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
@@ -2079,10 +2080,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2096,10 +2097,10 @@
         <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2113,10 +2114,10 @@
         <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2127,13 +2128,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -2142,10 +2143,10 @@
         <v>70</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>71</v>
@@ -2162,10 +2163,10 @@
         <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2174,10 +2175,10 @@
         <v>72</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>73</v>
@@ -2194,10 +2195,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2206,10 +2207,10 @@
         <v>74</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>75</v>
@@ -2226,10 +2227,10 @@
         <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2238,10 +2239,10 @@
         <v>76</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>77</v>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFE55A-E793-43EE-B788-927969CFEDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC25A3-4618-41EA-9152-0EB04A7B6670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <t>GB2204无刷电机 带磁编码器用磁环</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13962e8dMoPn2X&amp;id=599509181831&amp;_u=q1sddf3sb50a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13962e8dMoPn2X&amp;id=622544987536&amp;_u=q1sddf3sa81a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,10 +608,6 @@
     <t>Shenzhen Kinghelm Elec</t>
   </si>
   <si>
-    <t>ESP32-WROVER-32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.68016076ieZOJW&amp;id=568656173061&amp;ns=1&amp;abbucket=8#detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +617,14 @@
   </si>
   <si>
     <t>锂电池3.7v 503048 800毫安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-5028031803.21.4839150bbYrlSc&amp;id=596506316013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +982,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>7.3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,15 +1044,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -1061,12 +1061,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1075,12 +1075,12 @@
         <v>2.4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1089,12 +1089,12 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1103,15 +1103,15 @@
         <v>10.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -1120,12 +1120,12 @@
         <v>3.35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2">
         <v>15</v>
@@ -1134,12 +1134,12 @@
         <v>1.35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1148,12 +1148,12 @@
         <v>3.08</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>13.5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1195,34 +1195,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1230,22 +1230,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="4">
         <v>1.3299999999999999E-2</v>
@@ -1256,22 +1256,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J3" s="4">
         <v>0.67859999999999998</v>
@@ -1282,28 +1282,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4">
         <v>0.1099</v>
@@ -1314,28 +1314,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="4">
         <v>1.2500000000000001E-2</v>
@@ -1346,28 +1346,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="J6" s="4">
         <v>1.26E-2</v>
@@ -1378,28 +1378,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J7" s="4">
         <v>1.4E-2</v>
@@ -1410,13 +1410,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1427,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1444,13 +1444,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1461,28 +1461,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4">
         <v>8.8900000000000007E-2</v>
@@ -1493,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1510,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1527,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="J14" s="4">
         <v>0.35410000000000003</v>
@@ -1559,13 +1559,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1576,28 +1576,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="J16" s="4">
         <v>9.0499999999999997E-2</v>
@@ -1608,22 +1608,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" s="4">
         <v>0.1043</v>
@@ -1634,25 +1634,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4">
         <v>0.34100000000000003</v>
@@ -1663,28 +1663,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J19" s="4">
         <v>1.2796000000000001</v>
@@ -1695,28 +1695,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="J20" s="4">
         <v>0.378</v>
@@ -1727,28 +1727,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="J21" s="4">
         <v>9.3899999999999997E-2</v>
@@ -1759,28 +1759,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="J22" s="4">
         <v>0.59560000000000002</v>
@@ -1791,28 +1791,28 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J23" s="4">
         <v>8.0699999999999994E-2</v>
@@ -1823,22 +1823,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="4">
         <v>6.3E-3</v>
@@ -1849,28 +1849,28 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="J25" s="4">
         <v>7.4000000000000003E-3</v>
@@ -1881,28 +1881,28 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J26" s="4">
         <v>7.4000000000000003E-3</v>
@@ -1913,13 +1913,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -1930,28 +1930,28 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J28" s="4">
         <v>8.8999999999999999E-3</v>
@@ -1962,28 +1962,28 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="J29" s="4">
         <v>7.1000000000000004E-3</v>
@@ -1994,28 +1994,28 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J30" s="4">
         <v>7.1999999999999998E-3</v>
@@ -2026,13 +2026,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -2043,13 +2043,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -2060,13 +2060,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
@@ -2077,13 +2077,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2094,13 +2094,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2111,13 +2111,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2128,28 +2128,28 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J37" s="4">
         <v>0.43180000000000002</v>
@@ -2160,28 +2160,28 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="J38" s="4">
         <v>7.8</v>
@@ -2192,28 +2192,28 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="J39" s="4">
         <v>4.2</v>
@@ -2224,28 +2224,28 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="J40" s="4">
         <v>0.4844</v>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC25A3-4618-41EA-9152-0EB04A7B6670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF122AA9-CB1C-4DFC-ADF8-3DE9260597EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="淘宝购买" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c.w4002-5028031803.21.4839150bbYrlSc&amp;id=596506316013</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.3a842e8dxnrzTa&amp;id=599509181831&amp;_u=l1sddf3s325e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +982,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\foc_project\foc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF122AA9-CB1C-4DFC-ADF8-3DE9260597EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D7337-73DA-476C-B83C-050122C361F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="淘宝购买" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
   <si>
     <t>商品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,9 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13962e8dMoPn2X&amp;id=16630417522&amp;_u=q1sddf3scdf9</t>
-  </si>
-  <si>
     <t>MPU-6050模块</t>
   </si>
   <si>
@@ -612,19 +609,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?id=604086703320&amp;price=5.8-19.8&amp;sourceType=item&amp;sourceType=item&amp;suid=621cd5ef-8796-4f1a-a9ed-5190c6c573dd&amp;ut_sk=1.null.Copy.ShareGlobalNavigation_1&amp;un=acca778c3bcaa42a0d92f5aa52e6dceb&amp;share_crt_v=1&amp;spm=a2159r.13376460.0.0&amp;sp_tk=5ZCO5L2g5bCx6LW35LuW5bCP5LmI6YeM5Y675bCx6K%200&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fizk4UR&amp;bxsign=scdEqTaZNdEk_adN9mucLoQFQE42obUGpCqEjbIfWg2QAIU6XsW62zZv7f3Ki6-idQBkJiarN_MuQ7iNoToPdjZHpHR9Ay1Nv_NTfku2T2JcnB8TKt_AoIymN3FJvM__KWZ&amp;sm=587e9c&amp;app=chrome&amp;skuId=4740861566806</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.3a842e8dxnrzTa&amp;id=599509181831&amp;_u=l1sddf3s325e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锂电池3.7v 503048 800毫安</t>
+    <t>https://detail.tmall.com/item.htm?id=604086703320&amp;price=5.8-19.8&amp;sourceType=item&amp;sourceType=item&amp;suid=621cd5ef-8796-4f1a-a9ed-&amp;skuId=4740861566811</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ESP32-WROOM-32</t>
+    <t>锂电池3.7v 602535 600毫安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.3a842e8dxnrzTa&amp;id=599509181831&amp;_u=l1sddf3s325e</t>
+    <t>ESP32-WROOM-32   （选图片第一个）4MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-23633313809.13.6571546eNITJtV&amp;id=15813904618</t>
+  </si>
+  <si>
+    <t>2.54MM间距单排母    3P一个  4P一个（也可以买40P的自己剪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.13962e8dMoPn2X&amp;id=16630417522&amp;_u=q1sddf3scdf9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1010,7 +1018,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1018,13 +1026,13 @@
       <c r="C2" s="2">
         <v>5.6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1033,150 +1041,163 @@
         <v>7.3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>2.4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>3.35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>3.08</v>
+        <v>1.35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>13.5</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>186</v>
+      <c r="D13" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{4029FCE3-E6D0-4421-A530-9422D514F607}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{4029FCE3-E6D0-4421-A530-9422D514F607}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CD7F178F-E1BE-4CCE-86B4-8E548D4F0039}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{34FDAB64-8B74-441A-9A7C-4B54B2C3DDA4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{421ACC37-7070-4A8C-8D27-E730C8200E24}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{602E93D9-AC8D-48AE-BC7A-D48B4E2ACB8B}"/>
-    <hyperlink ref="D12" r:id="rId6" location="detail" xr:uid="{EA87394F-7984-4F56-B9AF-8D144A6A8826}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{34FDAB64-8B74-441A-9A7C-4B54B2C3DDA4}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{421ACC37-7070-4A8C-8D27-E730C8200E24}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{602E93D9-AC8D-48AE-BC7A-D48B4E2ACB8B}"/>
+    <hyperlink ref="D13" r:id="rId6" location="detail" xr:uid="{EA87394F-7984-4F56-B9AF-8D144A6A8826}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{2AB3233E-B4D4-46AC-941E-C75C349E82DE}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{57F1F193-A6AE-430F-B0D9-45001A23B9F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1195,34 +1216,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1230,22 +1251,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4">
         <v>1.3299999999999999E-2</v>
@@ -1256,22 +1277,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="4">
         <v>0.67859999999999998</v>
@@ -1282,28 +1303,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4">
         <v>0.1099</v>
@@ -1314,28 +1335,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4">
         <v>1.2500000000000001E-2</v>
@@ -1346,28 +1367,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J6" s="4">
         <v>1.26E-2</v>
@@ -1378,28 +1399,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J7" s="4">
         <v>1.4E-2</v>
@@ -1410,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1427,13 +1448,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -1444,13 +1465,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1461,28 +1482,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4">
         <v>8.8900000000000007E-2</v>
@@ -1493,13 +1514,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1510,13 +1531,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1527,28 +1548,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="J14" s="4">
         <v>0.35410000000000003</v>
@@ -1559,13 +1580,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1576,28 +1597,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="J16" s="4">
         <v>9.0499999999999997E-2</v>
@@ -1608,22 +1629,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="4">
         <v>0.1043</v>
@@ -1634,25 +1655,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="4">
         <v>0.34100000000000003</v>
@@ -1663,28 +1684,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J19" s="4">
         <v>1.2796000000000001</v>
@@ -1695,28 +1716,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="J20" s="4">
         <v>0.378</v>
@@ -1727,28 +1748,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="J21" s="4">
         <v>9.3899999999999997E-2</v>
@@ -1759,28 +1780,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="J22" s="4">
         <v>0.59560000000000002</v>
@@ -1791,28 +1812,28 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="J23" s="4">
         <v>8.0699999999999994E-2</v>
@@ -1823,22 +1844,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="4">
         <v>6.3E-3</v>
@@ -1849,28 +1870,28 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="J25" s="4">
         <v>7.4000000000000003E-3</v>
@@ -1881,28 +1902,28 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="J26" s="4">
         <v>7.4000000000000003E-3</v>
@@ -1913,13 +1934,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -1930,28 +1951,28 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="J28" s="4">
         <v>8.8999999999999999E-3</v>
@@ -1962,28 +1983,28 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J29" s="4">
         <v>7.1000000000000004E-3</v>
@@ -1994,28 +2015,28 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J30" s="4">
         <v>7.1999999999999998E-3</v>
@@ -2026,13 +2047,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -2043,13 +2064,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -2060,13 +2081,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
@@ -2077,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2094,13 +2115,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2111,13 +2132,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -2128,28 +2149,28 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="J37" s="4">
         <v>0.43180000000000002</v>
@@ -2160,28 +2181,28 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J38" s="4">
         <v>7.8</v>
@@ -2192,28 +2213,28 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="J39" s="4">
         <v>4.2</v>
@@ -2224,28 +2245,28 @@
         <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J40" s="4">
         <v>0.4844</v>
